--- a/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_xgb_nrs.xlsx
+++ b/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_xgb_nrs.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>135.9062211513519</v>
+        <v>141.790190410614</v>
       </c>
       <c r="C2">
-        <v>1.550776178772594</v>
+        <v>5.467103771821121</v>
       </c>
       <c r="D2">
-        <v>1.14232006072998</v>
+        <v>1.293891716003418</v>
       </c>
       <c r="E2">
-        <v>0.03482207543401891</v>
+        <v>0.05102543542591858</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -558,25 +558,25 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.7441077441077442</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K2">
-        <v>0.7777777777777778</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="L2">
-        <v>0.7702702702702703</v>
+        <v>0.7653061224489796</v>
       </c>
       <c r="M2">
-        <v>0.7601351351351351</v>
+        <v>0.6825938566552902</v>
       </c>
       <c r="N2">
-        <v>0.7297297297297297</v>
+        <v>0.7337883959044369</v>
       </c>
       <c r="O2">
-        <v>0.7564041314041314</v>
+        <v>0.7342968586752108</v>
       </c>
       <c r="P2">
-        <v>0.01746853056459859</v>
+        <v>0.02979349839686989</v>
       </c>
       <c r="Q2">
         <v>16</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>265.7051127433777</v>
+        <v>270.9427047729492</v>
       </c>
       <c r="C3">
-        <v>1.902456715450394</v>
+        <v>4.471435686862836</v>
       </c>
       <c r="D3">
-        <v>1.181802701950073</v>
+        <v>1.313193225860596</v>
       </c>
       <c r="E3">
-        <v>0.02155827325830446</v>
+        <v>0.1305196888624154</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -611,25 +611,25 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.7710437710437711</v>
+        <v>0.7891156462585034</v>
       </c>
       <c r="K3">
-        <v>0.8148148148148148</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="L3">
-        <v>0.7837837837837838</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="M3">
-        <v>0.8243243243243243</v>
+        <v>0.7542662116040956</v>
       </c>
       <c r="N3">
-        <v>0.7702702702702703</v>
+        <v>0.7781569965870307</v>
       </c>
       <c r="O3">
-        <v>0.7928473928473929</v>
+        <v>0.7853962062640756</v>
       </c>
       <c r="P3">
-        <v>0.02254168689328257</v>
+        <v>0.0185912563914524</v>
       </c>
       <c r="Q3">
         <v>13</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>526.0189157962799</v>
+        <v>530.3603349208831</v>
       </c>
       <c r="C4">
-        <v>1.791570959308312</v>
+        <v>9.752278823884598</v>
       </c>
       <c r="D4">
-        <v>1.193596124649048</v>
+        <v>1.338848447799683</v>
       </c>
       <c r="E4">
-        <v>0.009065407722573882</v>
+        <v>0.1837548417564425</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -664,25 +664,25 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>0.7912457912457912</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="K4">
-        <v>0.8451178451178452</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="L4">
-        <v>0.8243243243243243</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M4">
-        <v>0.8378378378378378</v>
+        <v>0.825938566552901</v>
       </c>
       <c r="N4">
-        <v>0.8141891891891891</v>
+        <v>0.8532423208191127</v>
       </c>
       <c r="O4">
-        <v>0.8225429975429975</v>
+        <v>0.8371967216920899</v>
       </c>
       <c r="P4">
-        <v>0.01895273196030692</v>
+        <v>0.0099208270412364</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>136.700274515152</v>
+        <v>141.4637673377991</v>
       </c>
       <c r="C5">
-        <v>1.386985456452652</v>
+        <v>3.587901875371539</v>
       </c>
       <c r="D5">
-        <v>1.290860414505005</v>
+        <v>1.284503364562988</v>
       </c>
       <c r="E5">
-        <v>0.1564087230833238</v>
+        <v>0.2238999624147617</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -717,25 +717,25 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.7441077441077442</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K5">
-        <v>0.7777777777777778</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="L5">
-        <v>0.7702702702702703</v>
+        <v>0.7653061224489796</v>
       </c>
       <c r="M5">
-        <v>0.7601351351351351</v>
+        <v>0.6825938566552902</v>
       </c>
       <c r="N5">
-        <v>0.7297297297297297</v>
+        <v>0.7337883959044369</v>
       </c>
       <c r="O5">
-        <v>0.7564041314041314</v>
+        <v>0.7342968586752108</v>
       </c>
       <c r="P5">
-        <v>0.01746853056459859</v>
+        <v>0.02979349839686989</v>
       </c>
       <c r="Q5">
         <v>16</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>269.426222896576</v>
+        <v>274.5318585395813</v>
       </c>
       <c r="C6">
-        <v>1.593401974446141</v>
+        <v>8.061189095611358</v>
       </c>
       <c r="D6">
-        <v>1.199596405029297</v>
+        <v>1.222790431976318</v>
       </c>
       <c r="E6">
-        <v>0.03298140084643324</v>
+        <v>0.07932311587713095</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -770,25 +770,25 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0.7710437710437711</v>
+        <v>0.7891156462585034</v>
       </c>
       <c r="K6">
-        <v>0.8148148148148148</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="L6">
-        <v>0.7837837837837838</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="M6">
-        <v>0.8243243243243243</v>
+        <v>0.7542662116040956</v>
       </c>
       <c r="N6">
-        <v>0.7702702702702703</v>
+        <v>0.7781569965870307</v>
       </c>
       <c r="O6">
-        <v>0.7928473928473929</v>
+        <v>0.7853962062640756</v>
       </c>
       <c r="P6">
-        <v>0.02254168689328257</v>
+        <v>0.0185912563914524</v>
       </c>
       <c r="Q6">
         <v>13</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>534.8340514659882</v>
+        <v>538.7208354949951</v>
       </c>
       <c r="C7">
-        <v>3.025589430929038</v>
+        <v>11.60411936661117</v>
       </c>
       <c r="D7">
-        <v>1.410846710205078</v>
+        <v>1.282387542724609</v>
       </c>
       <c r="E7">
-        <v>0.1426848943402056</v>
+        <v>0.05965340214623768</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -823,25 +823,25 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.7912457912457912</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="K7">
-        <v>0.8451178451178452</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="L7">
-        <v>0.8243243243243243</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M7">
-        <v>0.8378378378378378</v>
+        <v>0.825938566552901</v>
       </c>
       <c r="N7">
-        <v>0.8141891891891891</v>
+        <v>0.8532423208191127</v>
       </c>
       <c r="O7">
-        <v>0.8225429975429975</v>
+        <v>0.8371967216920899</v>
       </c>
       <c r="P7">
-        <v>0.01895273196030692</v>
+        <v>0.0099208270412364</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>137.6252374649048</v>
+        <v>142.0588445663452</v>
       </c>
       <c r="C8">
-        <v>0.5087947280665758</v>
+        <v>4.799102344569841</v>
       </c>
       <c r="D8">
-        <v>1.399698638916016</v>
+        <v>1.366710710525513</v>
       </c>
       <c r="E8">
-        <v>0.1680092654391727</v>
+        <v>0.0991146908151201</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -876,25 +876,25 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.7441077441077442</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K8">
-        <v>0.7777777777777778</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="L8">
-        <v>0.7702702702702703</v>
+        <v>0.7653061224489796</v>
       </c>
       <c r="M8">
-        <v>0.7601351351351351</v>
+        <v>0.6825938566552902</v>
       </c>
       <c r="N8">
-        <v>0.7297297297297297</v>
+        <v>0.7337883959044369</v>
       </c>
       <c r="O8">
-        <v>0.7564041314041314</v>
+        <v>0.7342968586752108</v>
       </c>
       <c r="P8">
-        <v>0.01746853056459859</v>
+        <v>0.02979349839686989</v>
       </c>
       <c r="Q8">
         <v>16</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>271.4086193561554</v>
+        <v>284.887886428833</v>
       </c>
       <c r="C9">
-        <v>3.141750666243925</v>
+        <v>5.452499357804087</v>
       </c>
       <c r="D9">
-        <v>1.376206493377686</v>
+        <v>1.273275279998779</v>
       </c>
       <c r="E9">
-        <v>0.1900092500495478</v>
+        <v>0.03062201907877644</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -929,25 +929,25 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.7710437710437711</v>
+        <v>0.7891156462585034</v>
       </c>
       <c r="K9">
-        <v>0.8148148148148148</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="L9">
-        <v>0.7837837837837838</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="M9">
-        <v>0.8243243243243243</v>
+        <v>0.7542662116040956</v>
       </c>
       <c r="N9">
-        <v>0.7702702702702703</v>
+        <v>0.7781569965870307</v>
       </c>
       <c r="O9">
-        <v>0.7928473928473929</v>
+        <v>0.7853962062640756</v>
       </c>
       <c r="P9">
-        <v>0.02254168689328257</v>
+        <v>0.0185912563914524</v>
       </c>
       <c r="Q9">
         <v>13</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>532.7320760726928</v>
+        <v>566.3151162624359</v>
       </c>
       <c r="C10">
-        <v>1.891073118785827</v>
+        <v>2.625490472700184</v>
       </c>
       <c r="D10">
-        <v>1.17301173210144</v>
+        <v>1.225105905532837</v>
       </c>
       <c r="E10">
-        <v>0.04512952919621238</v>
+        <v>0.07507819337065466</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -982,25 +982,25 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.7912457912457912</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="K10">
-        <v>0.8451178451178452</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="L10">
-        <v>0.8243243243243243</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M10">
-        <v>0.8378378378378378</v>
+        <v>0.825938566552901</v>
       </c>
       <c r="N10">
-        <v>0.8141891891891891</v>
+        <v>0.8532423208191127</v>
       </c>
       <c r="O10">
-        <v>0.8225429975429975</v>
+        <v>0.8371967216920899</v>
       </c>
       <c r="P10">
-        <v>0.01895273196030692</v>
+        <v>0.0099208270412364</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>219.4034552574158</v>
+        <v>227.2755155086517</v>
       </c>
       <c r="C11">
-        <v>3.206022502429987</v>
+        <v>3.938375369244795</v>
       </c>
       <c r="D11">
-        <v>1.191541337966919</v>
+        <v>1.225776767730713</v>
       </c>
       <c r="E11">
-        <v>0.05175263585373983</v>
+        <v>0.1195045116188172</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1035,25 +1035,25 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0.8080808080808081</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="K11">
-        <v>0.8518518518518519</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="L11">
-        <v>0.847972972972973</v>
+        <v>0.8877551020408163</v>
       </c>
       <c r="M11">
-        <v>0.8547297297297297</v>
+        <v>0.8293515358361775</v>
       </c>
       <c r="N11">
-        <v>0.8277027027027027</v>
+        <v>0.8600682593856656</v>
       </c>
       <c r="O11">
-        <v>0.838067613067613</v>
+        <v>0.8514894012212395</v>
       </c>
       <c r="P11">
-        <v>0.01773351271218937</v>
+        <v>0.02067210639603824</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>437.6502333164215</v>
+        <v>434.2567081928253</v>
       </c>
       <c r="C12">
-        <v>2.349476904547623</v>
+        <v>12.1992176472626</v>
       </c>
       <c r="D12">
-        <v>1.242819118499756</v>
+        <v>1.355031585693359</v>
       </c>
       <c r="E12">
-        <v>0.07518513657008156</v>
+        <v>0.12822595644944</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1088,25 +1088,25 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>0.8249158249158249</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="K12">
-        <v>0.8653198653198653</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="L12">
-        <v>0.8885135135135135</v>
+        <v>0.891156462585034</v>
       </c>
       <c r="M12">
-        <v>0.8445945945945946</v>
+        <v>0.8532423208191127</v>
       </c>
       <c r="N12">
-        <v>0.8412162162162162</v>
+        <v>0.8737201365187713</v>
       </c>
       <c r="O12">
-        <v>0.852912002912003</v>
+        <v>0.8610387499709781</v>
       </c>
       <c r="P12">
-        <v>0.02195986929190348</v>
+        <v>0.01878515608886381</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>875.4314189910889</v>
+        <v>835.8743745326996</v>
       </c>
       <c r="C13">
-        <v>6.161471773255941</v>
+        <v>16.354770989479</v>
       </c>
       <c r="D13">
-        <v>1.277083444595337</v>
+        <v>1.17430248260498</v>
       </c>
       <c r="E13">
-        <v>0.1453319609066</v>
+        <v>0.07836134468295386</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1141,25 +1141,25 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>0.8249158249158249</v>
+        <v>0.8605442176870748</v>
       </c>
       <c r="K13">
-        <v>0.8686868686868687</v>
+        <v>0.8537414965986394</v>
       </c>
       <c r="L13">
-        <v>0.875</v>
+        <v>0.891156462585034</v>
       </c>
       <c r="M13">
-        <v>0.8614864864864865</v>
+        <v>0.8634812286689419</v>
       </c>
       <c r="N13">
-        <v>0.8547297297297297</v>
+        <v>0.8839590443686007</v>
       </c>
       <c r="O13">
-        <v>0.8569637819637819</v>
+        <v>0.8705764899816583</v>
       </c>
       <c r="P13">
-        <v>0.01740835040949529</v>
+        <v>0.0144016266926334</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>227.7830582141876</v>
+        <v>214.5489120960236</v>
       </c>
       <c r="C14">
-        <v>6.367075319318864</v>
+        <v>6.666587922682583</v>
       </c>
       <c r="D14">
-        <v>1.423240470886231</v>
+        <v>1.341577339172363</v>
       </c>
       <c r="E14">
-        <v>0.2869402311763859</v>
+        <v>0.1824333602156545</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1194,25 +1194,25 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.8080808080808081</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="K14">
-        <v>0.8518518518518519</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="L14">
-        <v>0.847972972972973</v>
+        <v>0.8877551020408163</v>
       </c>
       <c r="M14">
-        <v>0.8547297297297297</v>
+        <v>0.8293515358361775</v>
       </c>
       <c r="N14">
-        <v>0.8277027027027027</v>
+        <v>0.8600682593856656</v>
       </c>
       <c r="O14">
-        <v>0.838067613067613</v>
+        <v>0.8514894012212395</v>
       </c>
       <c r="P14">
-        <v>0.01773351271218937</v>
+        <v>0.02067210639603824</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>440.4979911804199</v>
+        <v>426.7242632389069</v>
       </c>
       <c r="C15">
-        <v>7.724314335797801</v>
+        <v>12.32298888141635</v>
       </c>
       <c r="D15">
-        <v>1.346571207046509</v>
+        <v>1.176894474029541</v>
       </c>
       <c r="E15">
-        <v>0.2691852917103855</v>
+        <v>0.065720043956373</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1247,25 +1247,25 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0.8249158249158249</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="K15">
-        <v>0.8653198653198653</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="L15">
-        <v>0.8885135135135135</v>
+        <v>0.891156462585034</v>
       </c>
       <c r="M15">
-        <v>0.8445945945945946</v>
+        <v>0.8532423208191127</v>
       </c>
       <c r="N15">
-        <v>0.8412162162162162</v>
+        <v>0.8737201365187713</v>
       </c>
       <c r="O15">
-        <v>0.852912002912003</v>
+        <v>0.8610387499709781</v>
       </c>
       <c r="P15">
-        <v>0.02195986929190348</v>
+        <v>0.01878515608886381</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>861.2314785957336</v>
+        <v>836.5642330646515</v>
       </c>
       <c r="C16">
-        <v>5.332388786247035</v>
+        <v>11.92989242484695</v>
       </c>
       <c r="D16">
-        <v>1.344021034240723</v>
+        <v>1.238067007064819</v>
       </c>
       <c r="E16">
-        <v>0.1249917427284982</v>
+        <v>0.1228372250319964</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1300,25 +1300,25 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.8249158249158249</v>
+        <v>0.8605442176870748</v>
       </c>
       <c r="K16">
-        <v>0.8686868686868687</v>
+        <v>0.8537414965986394</v>
       </c>
       <c r="L16">
-        <v>0.875</v>
+        <v>0.891156462585034</v>
       </c>
       <c r="M16">
-        <v>0.8614864864864865</v>
+        <v>0.8634812286689419</v>
       </c>
       <c r="N16">
-        <v>0.8547297297297297</v>
+        <v>0.8839590443686007</v>
       </c>
       <c r="O16">
-        <v>0.8569637819637819</v>
+        <v>0.8705764899816583</v>
       </c>
       <c r="P16">
-        <v>0.01740835040949529</v>
+        <v>0.0144016266926334</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>218.7794068336487</v>
+        <v>215.3264278888702</v>
       </c>
       <c r="C17">
-        <v>1.347815147614842</v>
+        <v>5.188087630610338</v>
       </c>
       <c r="D17">
-        <v>1.318074750900269</v>
+        <v>1.25630407333374</v>
       </c>
       <c r="E17">
-        <v>0.2354328124419242</v>
+        <v>0.152354482866201</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1353,25 +1353,25 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>0.8080808080808081</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="K17">
-        <v>0.8518518518518519</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="L17">
-        <v>0.847972972972973</v>
+        <v>0.8877551020408163</v>
       </c>
       <c r="M17">
-        <v>0.8547297297297297</v>
+        <v>0.8293515358361775</v>
       </c>
       <c r="N17">
-        <v>0.8277027027027027</v>
+        <v>0.8600682593856656</v>
       </c>
       <c r="O17">
-        <v>0.838067613067613</v>
+        <v>0.8514894012212395</v>
       </c>
       <c r="P17">
-        <v>0.01773351271218937</v>
+        <v>0.02067210639603824</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>434.0137951850891</v>
+        <v>418.6657201766968</v>
       </c>
       <c r="C18">
-        <v>11.07593454224144</v>
+        <v>10.0155347460331</v>
       </c>
       <c r="D18">
-        <v>1.171551847457886</v>
+        <v>1.203985929489136</v>
       </c>
       <c r="E18">
-        <v>0.06112603199580224</v>
+        <v>0.1398630786402975</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1406,25 +1406,25 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>0.8249158249158249</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="K18">
-        <v>0.8653198653198653</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="L18">
-        <v>0.8885135135135135</v>
+        <v>0.891156462585034</v>
       </c>
       <c r="M18">
-        <v>0.8445945945945946</v>
+        <v>0.8532423208191127</v>
       </c>
       <c r="N18">
-        <v>0.8412162162162162</v>
+        <v>0.8737201365187713</v>
       </c>
       <c r="O18">
-        <v>0.852912002912003</v>
+        <v>0.8610387499709781</v>
       </c>
       <c r="P18">
-        <v>0.02195986929190348</v>
+        <v>0.01878515608886381</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>694.1560678482056</v>
+        <v>656.4482734680175</v>
       </c>
       <c r="C19">
-        <v>27.21978451260689</v>
+        <v>30.18060293035412</v>
       </c>
       <c r="D19">
-        <v>0.7028489112854004</v>
+        <v>0.8099252223968506</v>
       </c>
       <c r="E19">
-        <v>0.1359717419869206</v>
+        <v>0.07610957822214941</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1459,25 +1459,25 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>0.8249158249158249</v>
+        <v>0.8605442176870748</v>
       </c>
       <c r="K19">
-        <v>0.8686868686868687</v>
+        <v>0.8537414965986394</v>
       </c>
       <c r="L19">
-        <v>0.875</v>
+        <v>0.891156462585034</v>
       </c>
       <c r="M19">
-        <v>0.8614864864864865</v>
+        <v>0.8634812286689419</v>
       </c>
       <c r="N19">
-        <v>0.8547297297297297</v>
+        <v>0.8839590443686007</v>
       </c>
       <c r="O19">
-        <v>0.8569637819637819</v>
+        <v>0.8705764899816583</v>
       </c>
       <c r="P19">
-        <v>0.01740835040949529</v>
+        <v>0.0144016266926334</v>
       </c>
       <c r="Q19">
         <v>1</v>
